--- a/data/trans_orig/Q64C-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/Q64C-Habitat-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>42.06138177273296</v>
+        <v>41.9473506189838</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>42.14246560000681</v>
+        <v>42.00306465211612</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>40.00704493322974</v>
+        <v>39.92930868941959</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>40.07718397418007</v>
+        <v>40.11157961570495</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>37.6548643376892</v>
+        <v>37.41726198436427</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>33.56178765204398</v>
+        <v>33.67638887015102</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>33.14838052022259</v>
+        <v>33.21378495734483</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>35.08077503044485</v>
+        <v>35.04813075022223</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>40.95643054112687</v>
+        <v>41.00630986049887</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>39.30405718327643</v>
+        <v>39.40195104034676</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>37.68550058094609</v>
+        <v>37.60675345545393</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>38.20588769893516</v>
+        <v>38.19584930389203</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>43.8463216821532</v>
+        <v>43.70333972034592</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>44.61299597512584</v>
+        <v>44.3854268010269</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>42.55770676943254</v>
+        <v>42.47799172674385</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42.09400070553681</v>
+        <v>42.02357476843668</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>42.11462368073163</v>
+        <v>41.76945365339394</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>37.19002312298613</v>
+        <v>37.16981396880366</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>36.89424137024632</v>
+        <v>37.09192173610491</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>36.93112026688981</v>
+        <v>36.9723202784615</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>42.79198614423772</v>
+        <v>42.785623362648</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>41.44556856301799</v>
+        <v>41.61464817716395</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>39.91039554735595</v>
+        <v>39.87665227462822</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>39.66432847369506</v>
+        <v>39.68368666470838</v>
       </c>
     </row>
     <row r="7">
@@ -805,7 +805,7 @@
         <v>38.92917110787934</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>40.24924995742585</v>
+        <v>40.24924995742584</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>36.48988620177159</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>40.84186386796555</v>
+        <v>40.84529694126713</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>39.93535528462946</v>
+        <v>39.97408004667675</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>37.9075619002499</v>
+        <v>37.91032847857834</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>39.30644418769961</v>
+        <v>39.4206781598757</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>35.1218019341137</v>
+        <v>35.15982646534474</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>33.24453007011717</v>
+        <v>33.30878680744267</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>33.6064647751336</v>
+        <v>33.48063867511853</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>35.53548533148948</v>
+        <v>35.53362282875663</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>39.28970257786543</v>
+        <v>39.1750772493002</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>37.50683461312678</v>
+        <v>37.60863010750722</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>36.43797605486924</v>
+        <v>36.49952350412919</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>37.96921387677842</v>
+        <v>38.01815412606543</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>42.53586596997995</v>
+        <v>42.5573394336319</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>41.76447083166753</v>
+        <v>41.83388893006647</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>39.82283987969122</v>
+        <v>39.82832457602869</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>41.10566358115347</v>
+        <v>41.07699297249818</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>37.96640320337933</v>
+        <v>38.09223258657753</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>36.23608754112711</v>
+        <v>36.33549390118456</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>36.28933418352239</v>
+        <v>36.4065195715017</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>37.13507958071079</v>
+        <v>37.08785796353703</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>40.75809618192879</v>
+        <v>40.79438190644206</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>39.31225727642499</v>
+        <v>39.31428126537955</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>38.18845127252507</v>
+        <v>38.16798717739195</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>39.20070977160514</v>
+        <v>39.27429139268282</v>
       </c>
     </row>
     <row r="10">
@@ -941,7 +941,7 @@
         <v>39.2011629143394</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>39.76124601869055</v>
+        <v>39.76124601869054</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>37.06529364918826</v>
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>39.53528709856418</v>
+        <v>39.43490829280937</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>40.25688431536605</v>
+        <v>40.23402920433795</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>37.81349818540516</v>
+        <v>37.84030979863323</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>38.96934032032642</v>
+        <v>38.96196166996201</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>35.61133270070048</v>
+        <v>35.54233177939282</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>35.99392597358923</v>
+        <v>35.96827385661283</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>33.01221509555986</v>
+        <v>33.05770149570934</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>34.9430967786132</v>
+        <v>34.79084621529373</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>38.4201810870625</v>
+        <v>38.47798672249557</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>38.89150999875357</v>
+        <v>38.91004894881716</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36.19467602817878</v>
+        <v>36.16323223455118</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>37.37502277758221</v>
+        <v>37.33232083073478</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>41.83465654351771</v>
+        <v>41.85209785497518</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>42.61963284137288</v>
+        <v>42.63002103784161</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40.54681827708447</v>
+        <v>40.44665828642932</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>40.45844842767701</v>
+        <v>40.41876591703808</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>38.65466046523913</v>
+        <v>38.53982157491846</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>39.47536546272681</v>
+        <v>39.52743748460415</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>36.37089198670689</v>
+        <v>36.37414231788858</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>36.94830338714771</v>
+        <v>36.97043914354747</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>40.28051786380079</v>
+        <v>40.38329226020312</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>40.94795200610015</v>
+        <v>40.9553067106286</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>38.30756133860795</v>
+        <v>38.27222701873561</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>38.60560777086029</v>
+        <v>38.59089248218624</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>38.91301470305643</v>
+        <v>38.98893927159094</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>39.42402408774926</v>
+        <v>39.36079788611201</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38.24745995145449</v>
+        <v>38.28421685552475</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>37.77992888709841</v>
+        <v>37.64869565376424</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>35.56300705365148</v>
+        <v>35.61197913653529</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>34.46724628276339</v>
+        <v>34.64142347533288</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>33.78304847064273</v>
+        <v>33.77903744389595</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>32.9758581703734</v>
+        <v>33.07950392748036</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>37.84735285194247</v>
+        <v>37.83463096586112</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37.63318473713953</v>
+        <v>37.6578144332636</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>36.55095085831091</v>
+        <v>36.52513779775337</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>35.81881150026538</v>
+        <v>35.82669472509934</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>40.6523141870009</v>
+        <v>40.59188674095723</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>41.08215092179596</v>
+        <v>41.04489220136396</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>40.1662287011563</v>
+        <v>40.21246544633298</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>39.55768098466216</v>
+        <v>39.48542206098276</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>37.96816554411133</v>
+        <v>37.86219217599118</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>36.79889865525013</v>
+        <v>36.88529313438909</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>36.12691527123754</v>
+        <v>36.21128661732885</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>34.83227230602775</v>
+        <v>34.83001560955083</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>39.22377640064389</v>
+        <v>39.22096535695766</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>39.03295032975745</v>
+        <v>39.05291213123331</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>38.10661466257223</v>
+        <v>38.07866035241607</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>37.17148315991957</v>
+        <v>37.13687110474823</v>
       </c>
     </row>
     <row r="16">
@@ -1225,7 +1225,7 @@
         <v>34.91270506454786</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>35.47262328114817</v>
+        <v>35.47262328114818</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>39.73893473556407</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>40.67372033544407</v>
+        <v>40.66708590724869</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>40.69367194576189</v>
+        <v>40.76892471584781</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>38.9005488539422</v>
+        <v>38.88394577353625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>39.41957650445424</v>
+        <v>39.42872817208418</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>36.37315037885321</v>
+        <v>36.41483150857538</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>35.09613826204098</v>
+        <v>35.12964039736443</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>34.18364955496239</v>
+        <v>34.08957683490197</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>35.01094750963387</v>
+        <v>34.99452249060743</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>39.35006301053903</v>
+        <v>39.29678297181754</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38.62915240765607</v>
+        <v>38.69133745763402</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>37.05877185828798</v>
+        <v>37.07833674502789</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>37.61876896188799</v>
+        <v>37.62069725171307</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>41.63212460290656</v>
+        <v>41.60328957258641</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>41.75191652684767</v>
+        <v>41.80352996846838</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>40.07886364182713</v>
+        <v>40.03993975416065</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>40.310868078153</v>
+        <v>40.29138830750335</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>37.91307691693916</v>
+        <v>37.97840135716662</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>36.72245169575228</v>
+        <v>36.6312780330632</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>35.61226896322137</v>
+        <v>35.63480011894631</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>35.92005574855075</v>
+        <v>35.88864105417905</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>40.11658695237959</v>
+        <v>40.13129766159863</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>39.53592194399675</v>
+        <v>39.56656363847959</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>37.98286878217377</v>
+        <v>38.02326105517072</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>38.2694020465194</v>
+        <v>38.26173085084928</v>
       </c>
     </row>
     <row r="19">
